--- a/DateBase/orders/Nha Thu_2024-12-6.xlsx
+++ b/DateBase/orders/Nha Thu_2024-12-6.xlsx
@@ -867,6 +867,9 @@
       <c r="G2" t="str">
         <v>011106107375815645815431010251510151102015151555101015511510515105209</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
